--- a/data/trans_orig/P16A08-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A08-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13084</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7471</v>
+        <v>6923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23870</v>
+        <v>22091</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02239804665397458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01278960406117852</v>
+        <v>0.01185143243387381</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0408626998538428</v>
+        <v>0.03781808087586112</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -765,19 +765,19 @@
         <v>38137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27479</v>
+        <v>27628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50629</v>
+        <v>51038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04134811984480902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02979308418749751</v>
+        <v>0.02995395257694788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05489196335262167</v>
+        <v>0.05533568475370471</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -786,19 +786,19 @@
         <v>51220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38762</v>
+        <v>39337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66826</v>
+        <v>68414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03400015469692697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02572999044152573</v>
+        <v>0.02611215210949056</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04435889675591776</v>
+        <v>0.0454132316271102</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>571057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>560271</v>
+        <v>562050</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>576670</v>
+        <v>577218</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9776019533460254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9591373001461574</v>
+        <v>0.9621819191241394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872103959388218</v>
+        <v>0.9881485675661263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>847</v>
@@ -836,19 +836,19 @@
         <v>884196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>871704</v>
+        <v>871295</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>894854</v>
+        <v>894705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.958651880155191</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9451080366473782</v>
+        <v>0.9446643152462952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9702069158125024</v>
+        <v>0.9700460474230522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1409</v>
@@ -857,19 +857,19 @@
         <v>1455254</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1439648</v>
+        <v>1438060</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1467712</v>
+        <v>1467137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.965999845303073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9556411032440822</v>
+        <v>0.9545867683728897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9742700095584743</v>
+        <v>0.9738878478905094</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14262</v>
+        <v>14428</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34210</v>
+        <v>34267</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02104722823451605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01323159671408092</v>
+        <v>0.01338558300389648</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03173809124684648</v>
+        <v>0.03179096909408217</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -982,19 +982,19 @@
         <v>38828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27601</v>
+        <v>27304</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53501</v>
+        <v>53373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.036715266059995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02609933173868622</v>
+        <v>0.0258183354313149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05058983055647611</v>
+        <v>0.05046904331973772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -1003,19 +1003,19 @@
         <v>61514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46535</v>
+        <v>46529</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81241</v>
+        <v>82235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02880656927558299</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02179194966478161</v>
+        <v>0.02178910935473255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03804439222755381</v>
+        <v>0.03850997312851746</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1055207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1043684</v>
+        <v>1043627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1063632</v>
+        <v>1063466</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9789527717654839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9682619087531535</v>
+        <v>0.9682090309059186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9867684032859191</v>
+        <v>0.9866144169961035</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>992</v>
@@ -1053,19 +1053,19 @@
         <v>1018710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1004037</v>
+        <v>1004165</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1029937</v>
+        <v>1030234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.963284733940005</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9494101694435239</v>
+        <v>0.9495309566802619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9739006682613137</v>
+        <v>0.9741816645686845</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2025</v>
@@ -1074,19 +1074,19 @@
         <v>2073918</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2054191</v>
+        <v>2053197</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2088897</v>
+        <v>2088903</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.971193430724417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9619556077724462</v>
+        <v>0.9614900268714826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9782080503352184</v>
+        <v>0.9782108906452675</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>30341</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21346</v>
+        <v>20831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44234</v>
+        <v>44362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02707639658014183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01904889493787054</v>
+        <v>0.01858930093104938</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03947446439284938</v>
+        <v>0.03958876268983216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1199,19 +1199,19 @@
         <v>30595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20876</v>
+        <v>20655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44094</v>
+        <v>42871</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03078154000126621</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02100349746484381</v>
+        <v>0.02078052641585817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04436235089806862</v>
+        <v>0.04313219310884409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1220,19 +1220,19 @@
         <v>60936</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47625</v>
+        <v>47754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77846</v>
+        <v>78637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02881801938692416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02252287175681644</v>
+        <v>0.02258396816945797</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0368149492198805</v>
+        <v>0.0371888978087522</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1090235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1076342</v>
+        <v>1076214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1099230</v>
+        <v>1099745</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9729236034198582</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9605255356071506</v>
+        <v>0.9604112373101679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9809511050621296</v>
+        <v>0.9814106990689507</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>952</v>
@@ -1270,19 +1270,19 @@
         <v>963345</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>949846</v>
+        <v>951069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>973064</v>
+        <v>973285</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9692184599987338</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9556376491019315</v>
+        <v>0.9568678068911561</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9789965025351562</v>
+        <v>0.9792194735841421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2025</v>
@@ -1291,19 +1291,19 @@
         <v>2053580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2036670</v>
+        <v>2035879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2066891</v>
+        <v>2066762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9711819806130758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9631850507801195</v>
+        <v>0.9628111021912478</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9774771282431836</v>
+        <v>0.977416031830542</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11251</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5641</v>
+        <v>5797</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20338</v>
+        <v>19897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0251586955888437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01261448268480077</v>
+        <v>0.01296307844448351</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04547918127312787</v>
+        <v>0.04449203955326954</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1416,19 +1416,19 @@
         <v>18421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11239</v>
+        <v>11294</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29402</v>
+        <v>28527</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05399564622711812</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03294268771815731</v>
+        <v>0.03310596263616156</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08618373960461925</v>
+        <v>0.0836168741697856</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>29672</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20380</v>
+        <v>19872</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42747</v>
+        <v>42003</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03763775105940584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02585100940020928</v>
+        <v>0.02520666133613222</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05422226298233306</v>
+        <v>0.05327897626023182</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>435949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>426862</v>
+        <v>427303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441559</v>
+        <v>441403</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9748413044111562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9545208187268721</v>
+        <v>0.9555079604467304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9873855173151992</v>
+        <v>0.9870369215555165</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>321</v>
@@ -1487,19 +1487,19 @@
         <v>322737</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>311756</v>
+        <v>312631</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>329919</v>
+        <v>329864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9460043537728818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.913816260395381</v>
+        <v>0.9163831258302143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9670573122818428</v>
+        <v>0.9668940373638384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>747</v>
@@ -1508,19 +1508,19 @@
         <v>758686</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>745611</v>
+        <v>746355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767978</v>
+        <v>768486</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9623622489405942</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9457777370176671</v>
+        <v>0.9467210237397683</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9741489905997909</v>
+        <v>0.9747933386638679</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>77362</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59777</v>
+        <v>61619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96760</v>
+        <v>96642</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02395261743092827</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01850781448021498</v>
+        <v>0.01907833784765632</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02995829212885831</v>
+        <v>0.02992180196964422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -1633,19 +1633,19 @@
         <v>125981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105898</v>
+        <v>105125</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148727</v>
+        <v>152349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03800354669555758</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03194538656473721</v>
+        <v>0.03171216027902566</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04486531282347499</v>
+        <v>0.0459577587356951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -1654,19 +1654,19 @@
         <v>203343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176889</v>
+        <v>178027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>232281</v>
+        <v>234540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03106949420843733</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02702748245601605</v>
+        <v>0.02720138980079155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03549098242498656</v>
+        <v>0.03583625942011916</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3152449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3133051</v>
+        <v>3133169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3170034</v>
+        <v>3168192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9760473825690718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9700417078711417</v>
+        <v>0.9700781980303558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.981492185519785</v>
+        <v>0.9809216621523437</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3112</v>
@@ -1704,19 +1704,19 @@
         <v>3188988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3166242</v>
+        <v>3162620</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3209071</v>
+        <v>3209844</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9619964533044424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9551346871765252</v>
+        <v>0.9540422412643053</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9680546134352629</v>
+        <v>0.9682878397209744</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6206</v>
@@ -1725,19 +1725,19 @@
         <v>6341437</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6312499</v>
+        <v>6310240</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6367891</v>
+        <v>6366753</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9689305057915627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9645090175750134</v>
+        <v>0.9641637405798809</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9729725175439838</v>
+        <v>0.9727986101992084</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>35168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24125</v>
+        <v>24453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51248</v>
+        <v>50124</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03382103203425841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02320157654564536</v>
+        <v>0.02351702043660833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04928563913890682</v>
+        <v>0.04820476916596064</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -2090,19 +2090,19 @@
         <v>76883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60727</v>
+        <v>60132</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96427</v>
+        <v>93949</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06903261538764639</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05452617572553241</v>
+        <v>0.05399215261859991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08658102116550474</v>
+        <v>0.08435629848016085</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -2111,19 +2111,19 @@
         <v>112050</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93058</v>
+        <v>93145</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135734</v>
+        <v>135804</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05203096604320031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04321161713826427</v>
+        <v>0.04325233825283762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06302856716951902</v>
+        <v>0.06306118667066291</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1004649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>988569</v>
+        <v>989693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1015692</v>
+        <v>1015364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9661789679657415</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9507143608610932</v>
+        <v>0.9517952308340394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9767984234543546</v>
+        <v>0.9764829795633917</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>955</v>
@@ -2161,19 +2161,19 @@
         <v>1036833</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1017289</v>
+        <v>1019767</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1052989</v>
+        <v>1053584</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9309673846123536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9134189788344955</v>
+        <v>0.9156437015198392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9454738242744678</v>
+        <v>0.9460078473814002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1900</v>
@@ -2182,19 +2182,19 @@
         <v>2041483</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2017799</v>
+        <v>2017729</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2060475</v>
+        <v>2060388</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9479690339567997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9369714328304809</v>
+        <v>0.936938813329337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9567883828617357</v>
+        <v>0.9567476617471624</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>25660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16075</v>
+        <v>16394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37620</v>
+        <v>39796</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02633029329676502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01649469358110827</v>
+        <v>0.01682291657066103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03860348377967235</v>
+        <v>0.04083632146698907</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -2307,19 +2307,19 @@
         <v>53837</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40446</v>
+        <v>40518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69591</v>
+        <v>68960</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04929354625559199</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03703260768770489</v>
+        <v>0.03709881260732321</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06371812038258755</v>
+        <v>0.06314000000096474</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -2328,19 +2328,19 @@
         <v>79497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63683</v>
+        <v>64318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97738</v>
+        <v>100563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03846551391791636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03081355522214715</v>
+        <v>0.03112102078663854</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04729149488149179</v>
+        <v>0.04865865116941893</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>948869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>936909</v>
+        <v>934733</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>958454</v>
+        <v>958135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9736697067032349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9613965162203276</v>
+        <v>0.9591636785330109</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9835053064188917</v>
+        <v>0.983177083429339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>968</v>
@@ -2378,19 +2378,19 @@
         <v>1038340</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1022586</v>
+        <v>1023217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1051731</v>
+        <v>1051659</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.950706453744408</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.936281879617413</v>
+        <v>0.9368599999990352</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9629673923122952</v>
+        <v>0.9629011873926767</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1866</v>
@@ -2399,19 +2399,19 @@
         <v>1987210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1968969</v>
+        <v>1966144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2003024</v>
+        <v>2002389</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9615344860820836</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9527085051185082</v>
+        <v>0.9513413488305812</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9691864447778529</v>
+        <v>0.9688789792133614</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>32838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23543</v>
+        <v>22677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45822</v>
+        <v>44608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03713878512912562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02662644943156347</v>
+        <v>0.02564717250689295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05182417636988138</v>
+        <v>0.05045107801547359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -2524,19 +2524,19 @@
         <v>42564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30553</v>
+        <v>30622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57069</v>
+        <v>57331</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04870962894485379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03496443599954055</v>
+        <v>0.03504327462616695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06530899734323303</v>
+        <v>0.06560883786601103</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -2545,19 +2545,19 @@
         <v>75401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60176</v>
+        <v>61141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93756</v>
+        <v>95149</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04289011202506955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03422955956817532</v>
+        <v>0.03477834049666791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05333050078989048</v>
+        <v>0.05412336056889073</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>851347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>838363</v>
+        <v>839577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>860642</v>
+        <v>861508</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9628612148708744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9481758236301187</v>
+        <v>0.9495489219845263</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9733735505684366</v>
+        <v>0.974352827493107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>778</v>
@@ -2595,19 +2595,19 @@
         <v>831261</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>816756</v>
+        <v>816494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>843272</v>
+        <v>843203</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9512903710551462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9346910026567672</v>
+        <v>0.9343911621339889</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9650355640004594</v>
+        <v>0.9649567253738328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1575</v>
@@ -2616,19 +2616,19 @@
         <v>1682609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1664254</v>
+        <v>1662861</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1697834</v>
+        <v>1696869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9571098879749305</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9466694992101097</v>
+        <v>0.9458766394311098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9657704404318249</v>
+        <v>0.9652216595033323</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>21998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12796</v>
+        <v>13699</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33447</v>
+        <v>34128</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04373107949130354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02543886962095634</v>
+        <v>0.02723338782971261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06649149071494362</v>
+        <v>0.06784634940676942</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -2741,19 +2741,19 @@
         <v>20903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12301</v>
+        <v>13176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30552</v>
+        <v>31631</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04647350792540922</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02734890529500911</v>
+        <v>0.02929437333404241</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06792668982000712</v>
+        <v>0.07032555521777074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -2762,19 +2762,19 @@
         <v>42901</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32117</v>
+        <v>31181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59009</v>
+        <v>59307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04502567156196612</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03370784500049258</v>
+        <v>0.03272550570235822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06193179967178415</v>
+        <v>0.06224500593423427</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>481025</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>469576</v>
+        <v>468895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>490227</v>
+        <v>489324</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9562689205086965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9335085092850562</v>
+        <v>0.9321536505932305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9745611303790437</v>
+        <v>0.9727666121702874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -2812,19 +2812,19 @@
         <v>428878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>419229</v>
+        <v>418150</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>437480</v>
+        <v>436605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9535264920745907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9320733101799928</v>
+        <v>0.9296744447822292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9726510947049908</v>
+        <v>0.9707056266659576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>831</v>
@@ -2833,19 +2833,19 @@
         <v>909902</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>893794</v>
+        <v>893496</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>920686</v>
+        <v>921622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9549743284380339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9380682003282159</v>
+        <v>0.9377549940657656</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9662921549995074</v>
+        <v>0.9672744942976417</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>115663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94543</v>
+        <v>95325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141639</v>
+        <v>139471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03400287255344375</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02779401011037029</v>
+        <v>0.02802396376199144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04163963709042123</v>
+        <v>0.04100216659299161</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -2958,19 +2958,19 @@
         <v>194187</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167183</v>
+        <v>166720</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221642</v>
+        <v>221883</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05501817517891211</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04736728226159301</v>
+        <v>0.04723606159607131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06279716026066184</v>
+        <v>0.06286524632315936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>286</v>
@@ -2979,19 +2979,19 @@
         <v>309849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>273659</v>
+        <v>275497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>344412</v>
+        <v>347796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04470449020167256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03948304096061621</v>
+        <v>0.03974823005048862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04969111676763738</v>
+        <v>0.0501793765423033</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3285891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3259915</v>
+        <v>3262083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3307011</v>
+        <v>3306229</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9659971274465563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9583603629095793</v>
+        <v>0.9589978334070086</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9722059898896298</v>
+        <v>0.9719760362380088</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3090</v>
@@ -3029,19 +3029,19 @@
         <v>3335311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3307856</v>
+        <v>3307615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3362315</v>
+        <v>3362778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9449818248210879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9372028397393382</v>
+        <v>0.9371347536768407</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9526327177384069</v>
+        <v>0.9527639384039288</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6172</v>
@@ -3050,19 +3050,19 @@
         <v>6621204</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6586641</v>
+        <v>6583257</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6657394</v>
+        <v>6655556</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9552955097983274</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9503088832323625</v>
+        <v>0.9498206234576966</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9605169590393838</v>
+        <v>0.9602517699495113</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>32960</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22854</v>
+        <v>23137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46620</v>
+        <v>47228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02921997302537484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0202607929496722</v>
+        <v>0.0205112002466671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04133012326425183</v>
+        <v>0.0418691374801193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -3415,19 +3415,19 @@
         <v>78930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62189</v>
+        <v>62353</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97340</v>
+        <v>97018</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06266481783357895</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04937318340726028</v>
+        <v>0.04950380178662395</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07728104769028207</v>
+        <v>0.07702499960552729</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -3436,19 +3436,19 @@
         <v>111890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92174</v>
+        <v>92526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133949</v>
+        <v>136315</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04686386459791043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03860576584946009</v>
+        <v>0.0387535451061803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05610305135186303</v>
+        <v>0.05709377472930122</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1095037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1081377</v>
+        <v>1080769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1105143</v>
+        <v>1104860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9707800269746252</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9586698767357483</v>
+        <v>0.9581308625198809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9797392070503281</v>
+        <v>0.9794887997533329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1115</v>
@@ -3486,19 +3486,19 @@
         <v>1180631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1162221</v>
+        <v>1162543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1197372</v>
+        <v>1197208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9373351821664211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9227189523097179</v>
+        <v>0.9229750003944729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9506268165927397</v>
+        <v>0.9504961982133762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2150</v>
@@ -3507,19 +3507,19 @@
         <v>2275668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2253609</v>
+        <v>2251243</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2295384</v>
+        <v>2295032</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9531361354020895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9438969486481368</v>
+        <v>0.9429062252706988</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9613942341505397</v>
+        <v>0.9612464548938198</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>32990</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23422</v>
+        <v>23025</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45609</v>
+        <v>45477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03629954107039749</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02577145947188127</v>
+        <v>0.02533479916447785</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05018490738912544</v>
+        <v>0.0500398091833742</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3632,19 +3632,19 @@
         <v>48285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36484</v>
+        <v>36538</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63115</v>
+        <v>64844</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04797482174457664</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03624927727747185</v>
+        <v>0.03630269203782419</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06270876850035013</v>
+        <v>0.06442674625272168</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -3653,19 +3653,19 @@
         <v>81275</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65037</v>
+        <v>64978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99335</v>
+        <v>100205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0424348102796788</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03395659612124383</v>
+        <v>0.03392574344926017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05186411621548045</v>
+        <v>0.05231802794463237</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>875835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>863216</v>
+        <v>863348</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>885403</v>
+        <v>885800</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9637004589296025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9498150926108749</v>
+        <v>0.9499601908166261</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9742285405281189</v>
+        <v>0.9746652008355221</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>906</v>
@@ -3703,19 +3703,19 @@
         <v>958190</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>943360</v>
+        <v>941631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>969991</v>
+        <v>969937</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9520251782554233</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9372912314996499</v>
+        <v>0.9355732537472781</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9637507227225282</v>
+        <v>0.9636973079621757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1754</v>
@@ -3724,19 +3724,19 @@
         <v>1834025</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1815965</v>
+        <v>1815095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1850263</v>
+        <v>1850322</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9575651897203212</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9481358837845192</v>
+        <v>0.9476819720553675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9660434038787561</v>
+        <v>0.9660742565507398</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>26412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17698</v>
+        <v>17239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38801</v>
+        <v>40158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03206237636158293</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02148492579429041</v>
+        <v>0.02092692428569716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04710290546134112</v>
+        <v>0.04875023734910201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -3849,19 +3849,19 @@
         <v>36470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25568</v>
+        <v>26381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48734</v>
+        <v>49541</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0472981993028667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03315958335966751</v>
+        <v>0.03421460340976117</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06320350179815779</v>
+        <v>0.06424996314724633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -3870,19 +3870,19 @@
         <v>62881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47696</v>
+        <v>48194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81389</v>
+        <v>77756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03942855472975051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02990687635720096</v>
+        <v>0.03021919921442371</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05103345377992211</v>
+        <v>0.04875563538830379</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>797347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>784958</v>
+        <v>783601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>806061</v>
+        <v>806520</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9679376236384171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9528970945386589</v>
+        <v>0.951249762650898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9785150742057096</v>
+        <v>0.9790730757143032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>692</v>
@@ -3920,19 +3920,19 @@
         <v>734589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>722325</v>
+        <v>721518</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>745491</v>
+        <v>744678</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9527018006971333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9367964982018421</v>
+        <v>0.9357500368527536</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9668404166403325</v>
+        <v>0.9657853965902388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1454</v>
@@ -3941,19 +3941,19 @@
         <v>1531937</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1513429</v>
+        <v>1517062</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1547122</v>
+        <v>1546624</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9605714452702495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.948966546220078</v>
+        <v>0.9512443646116964</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9700931236427992</v>
+        <v>0.9697808007855764</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>11874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5699</v>
+        <v>5897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21219</v>
+        <v>20143</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02343447450982634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01124673204256696</v>
+        <v>0.01163841725327232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04187770726013849</v>
+        <v>0.03975312988553022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -4066,19 +4066,19 @@
         <v>25612</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15911</v>
+        <v>15852</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36476</v>
+        <v>37862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05230236415742109</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03249153573949311</v>
+        <v>0.03237056863785841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0744872076078008</v>
+        <v>0.07731690576107128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -4087,19 +4087,19 @@
         <v>37487</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27033</v>
+        <v>25983</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53090</v>
+        <v>52445</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03762210682048706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.027130657047241</v>
+        <v>0.02607706784085551</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05328233230491834</v>
+        <v>0.0526344889124515</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>494827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>485482</v>
+        <v>486558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501002</v>
+        <v>500804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9765655254901736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9581222927398615</v>
+        <v>0.9602468701144693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.988753267957433</v>
+        <v>0.9883615827467277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>433</v>
@@ -4137,19 +4137,19 @@
         <v>464086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>453222</v>
+        <v>451836</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>473787</v>
+        <v>473846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9476976358425789</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9255127923921992</v>
+        <v>0.9226830942389287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9675084642605072</v>
+        <v>0.9676294313621416</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>893</v>
@@ -4158,19 +4158,19 @@
         <v>958911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>943308</v>
+        <v>943953</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>969365</v>
+        <v>970415</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9623778931795129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9467176676950816</v>
+        <v>0.9473655110875485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.972869342952759</v>
+        <v>0.9739229321591445</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>104236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86262</v>
+        <v>85088</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126169</v>
+        <v>126122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03095550502627014</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02561770478673836</v>
+        <v>0.0252690587474658</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03746907692056062</v>
+        <v>0.03745511440276709</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>176</v>
@@ -4283,19 +4283,19 @@
         <v>189298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>163618</v>
+        <v>162850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219723</v>
+        <v>216770</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0536741687620566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0463928309308132</v>
+        <v>0.04617511638330933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06230101335553658</v>
+        <v>0.06146368691937671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>276</v>
@@ -4304,19 +4304,19 @@
         <v>293534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>258650</v>
+        <v>261649</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>325258</v>
+        <v>327951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04257766088727736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03751772355500354</v>
+        <v>0.03795280634013448</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04717938205150202</v>
+        <v>0.04756997818276269</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3263046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3241113</v>
+        <v>3241160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3281020</v>
+        <v>3282194</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9690444949737299</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.962530923079439</v>
+        <v>0.9625448855972328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9743822952132615</v>
+        <v>0.9747309412525341</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3146</v>
@@ -4354,19 +4354,19 @@
         <v>3337494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3307069</v>
+        <v>3310022</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3363174</v>
+        <v>3363942</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9463258312379434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9376989866444634</v>
+        <v>0.9385363130806228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9536071690691866</v>
+        <v>0.9538248836166906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6251</v>
@@ -4375,19 +4375,19 @@
         <v>6600541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6568817</v>
+        <v>6566124</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6635425</v>
+        <v>6632426</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9574223391127227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.952820617948498</v>
+        <v>0.9524300218172375</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9624822764449965</v>
+        <v>0.9620471936598664</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>26990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17531</v>
+        <v>17904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39840</v>
+        <v>39239</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05411628040592194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03515067069470464</v>
+        <v>0.03589897398134387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07988239333345223</v>
+        <v>0.0786762682770086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -4740,19 +4740,19 @@
         <v>49911</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39007</v>
+        <v>38602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63883</v>
+        <v>63329</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08003988153061797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06255409354897264</v>
+        <v>0.06190409121372716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1024461719341331</v>
+        <v>0.101557799530003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -4761,19 +4761,19 @@
         <v>76901</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60735</v>
+        <v>62456</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92170</v>
+        <v>94477</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06851988347175463</v>
+        <v>0.06851988347175461</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05411561636744441</v>
+        <v>0.05564944312789658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08212410529251463</v>
+        <v>0.08417965249437241</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>471749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>458899</v>
+        <v>459500</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>481208</v>
+        <v>480835</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.945883719594078</v>
+        <v>0.9458837195940781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9201176066665477</v>
+        <v>0.9213237317229916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9648493293052953</v>
+        <v>0.9641010260186561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>794</v>
@@ -4811,19 +4811,19 @@
         <v>573669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559697</v>
+        <v>560251</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>584573</v>
+        <v>584978</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.919960118469382</v>
+        <v>0.9199601184693819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8975538280658666</v>
+        <v>0.8984422004699971</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9374459064510273</v>
+        <v>0.9380959087862727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1225</v>
@@ -4832,19 +4832,19 @@
         <v>1045419</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1030150</v>
+        <v>1027843</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1061585</v>
+        <v>1059864</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9314801165282455</v>
+        <v>0.9314801165282454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9178758947074855</v>
+        <v>0.9158203475056277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9458843836325556</v>
+        <v>0.9443505568721035</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>39089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26890</v>
+        <v>27235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56071</v>
+        <v>56282</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04073286735750666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02802098336631204</v>
+        <v>0.02837993089841786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05842954270457244</v>
+        <v>0.05864850256972667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -4957,19 +4957,19 @@
         <v>48370</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37323</v>
+        <v>36587</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61875</v>
+        <v>61306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.043371739474855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03346614049173668</v>
+        <v>0.03280620322328762</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05548089440130035</v>
+        <v>0.05497125972081598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -4978,19 +4978,19 @@
         <v>87459</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69754</v>
+        <v>70374</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109030</v>
+        <v>107387</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04215125345317176</v>
+        <v>0.04215125345317175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03361824632815389</v>
+        <v>0.03391704083392184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05254751285239075</v>
+        <v>0.05175551742615494</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>920553</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>903571</v>
+        <v>903360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>932752</v>
+        <v>932407</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9592671326424935</v>
+        <v>0.9592671326424933</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9415704572954279</v>
+        <v>0.9413514974302727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9719790166336884</v>
+        <v>0.9716200691015821</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1541</v>
@@ -5028,19 +5028,19 @@
         <v>1066876</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1053371</v>
+        <v>1053940</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1077923</v>
+        <v>1078659</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.956628260525145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9445191055986997</v>
+        <v>0.945028740279184</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9665338595082632</v>
+        <v>0.9671937967767125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2418</v>
@@ -5049,19 +5049,19 @@
         <v>1987429</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1965858</v>
+        <v>1967501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2005134</v>
+        <v>2004514</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9578487465468283</v>
+        <v>0.9578487465468282</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9474524871476092</v>
+        <v>0.9482444825738449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9663817536718461</v>
+        <v>0.9660829591660782</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>26221</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16026</v>
+        <v>16350</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41540</v>
+        <v>40172</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02505654473451631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01531446243417544</v>
+        <v>0.01562361354469048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03969485140267199</v>
+        <v>0.03838749999845727</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -5174,19 +5174,19 @@
         <v>38528</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27475</v>
+        <v>27573</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51570</v>
+        <v>51302</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03678795872162532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02623432434504896</v>
+        <v>0.02632775446330034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04924029368884249</v>
+        <v>0.04898435168838689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -5195,19 +5195,19 @@
         <v>64750</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49429</v>
+        <v>50342</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81957</v>
+        <v>82457</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03092458014242586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0236072528113489</v>
+        <v>0.02404362564524165</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03914280340671087</v>
+        <v>0.03938170244530183</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1020258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1004939</v>
+        <v>1006307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1030453</v>
+        <v>1030129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9749434552654838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9603051485973283</v>
+        <v>0.9616125000015434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9846855375658247</v>
+        <v>0.9843763864553099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1468</v>
@@ -5245,19 +5245,19 @@
         <v>1008782</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>995740</v>
+        <v>996008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1019835</v>
+        <v>1019737</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9632120412783747</v>
+        <v>0.9632120412783748</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9507597063111574</v>
+        <v>0.9510156483116129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.973765675654951</v>
+        <v>0.9736722455366997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2475</v>
@@ -5266,19 +5266,19 @@
         <v>2029040</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2011833</v>
+        <v>2011333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2044361</v>
+        <v>2043448</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9690754198575741</v>
+        <v>0.9690754198575743</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9608571965932893</v>
+        <v>0.9606182975546982</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9763927471886518</v>
+        <v>0.975956374354758</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>25482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16578</v>
+        <v>16679</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37626</v>
+        <v>37864</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02611016541260375</v>
+        <v>0.02611016541260376</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01698730261823377</v>
+        <v>0.01709025406218363</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0385536796618163</v>
+        <v>0.03879789936114006</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -5391,19 +5391,19 @@
         <v>47041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36521</v>
+        <v>35559</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59913</v>
+        <v>59289</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05177052999567702</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04019255728281693</v>
+        <v>0.03913424860316275</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0659373926525757</v>
+        <v>0.0652496557449008</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -5412,19 +5412,19 @@
         <v>72523</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56999</v>
+        <v>57774</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88946</v>
+        <v>90755</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03848225639660312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03024514411681005</v>
+        <v>0.03065615658056925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04719678340749083</v>
+        <v>0.04815677090125058</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>950447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>938303</v>
+        <v>938065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>959351</v>
+        <v>959250</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9738898345873962</v>
+        <v>0.9738898345873964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9614463203381834</v>
+        <v>0.9612021006388598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9830126973817662</v>
+        <v>0.9829097459378163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1256</v>
@@ -5462,19 +5462,19 @@
         <v>861601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>848729</v>
+        <v>849353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>872121</v>
+        <v>873083</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.948229470004323</v>
+        <v>0.9482294700043229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9340626073474243</v>
+        <v>0.9347503442550994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9598074427171832</v>
+        <v>0.9608657513968372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2179</v>
@@ -5483,19 +5483,19 @@
         <v>1812048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795625</v>
+        <v>1793816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1827572</v>
+        <v>1826797</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9615177436033968</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9528032165925092</v>
+        <v>0.9518432290987494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9697548558831899</v>
+        <v>0.9693438434194308</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>117782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97020</v>
+        <v>96839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144995</v>
+        <v>143242</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03383764066670821</v>
+        <v>0.03383764066670822</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02787307190646313</v>
+        <v>0.0278210100685747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04165574997442711</v>
+        <v>0.04115217742126832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>244</v>
@@ -5608,19 +5608,19 @@
         <v>183851</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161322</v>
+        <v>162246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210144</v>
+        <v>210909</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04975960816839693</v>
+        <v>0.04975960816839692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04366202856408397</v>
+        <v>0.04391226407469612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05687600101939898</v>
+        <v>0.05708290557865916</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>346</v>
@@ -5629,19 +5629,19 @@
         <v>301632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>269492</v>
+        <v>269998</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>336487</v>
+        <v>340097</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04203603655889903</v>
+        <v>0.04203603655889902</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03755682530417172</v>
+        <v>0.03762744129667184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04689340510852992</v>
+        <v>0.04739648232312403</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3363007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3335794</v>
+        <v>3337547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3383769</v>
+        <v>3383950</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9661623593332918</v>
+        <v>0.9661623593332919</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9583442500255734</v>
+        <v>0.9588478225787316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9721269280935371</v>
+        <v>0.972178989931425</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5059</v>
@@ -5679,19 +5679,19 @@
         <v>3510928</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3484635</v>
+        <v>3483870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3533457</v>
+        <v>3532533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9502403918316031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9431239989806011</v>
+        <v>0.9429170944213409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9563379714359161</v>
+        <v>0.9560877359253039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8297</v>
@@ -5700,19 +5700,19 @@
         <v>6873936</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6839081</v>
+        <v>6835471</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6906076</v>
+        <v>6905570</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9579639634411009</v>
+        <v>0.957963963441101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9531065948914701</v>
+        <v>0.9526035176768757</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9624431746958281</v>
+        <v>0.9623725587033283</v>
       </c>
     </row>
     <row r="18">
